--- a/data/sheets/Iron Ore.xlsx
+++ b/data/sheets/Iron Ore.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28aa9e46087b5738/0-Concordia_Capital/excel_to_https/excel_web_refresh/export/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F5C0BD3-336D-4DB1-B746-461FC3110713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F728DB5B-0437-4998-A8B5-D1F3CFDBC697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37B63C26-DB3F-4759-BDA3-E7C859AB2704}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0EE8748-1EA4-45B6-9DA0-609DC481E86A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Iron Ore" sheetId="2" r:id="rId1"/>
+    <sheet name="Iron Ore" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -48,7 +48,6 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" localSheetId="0" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
@@ -425,14 +424,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -774,309 +766,307 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{B5841D26-5297-4B1E-9EB3-84C9F77A60C2}"/>
-    <cellStyle name="百分比 2" xfId="2" xr:uid="{33FC300A-CBE5-4913-AA9B-AC4832E563F1}"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1554,7 +1544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02622C41-9D86-480B-82AD-5F7BEDC46DF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A60A28-0A7B-4AE9-9387-43C3F8C02FDC}">
   <dimension ref="A1:AR65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1565,7 +1555,7 @@
       <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="3" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="2" max="7" width="12.77734375" style="3" hidden="1" customWidth="1" outlineLevel="2"/>
@@ -1602,7 +1592,7 @@
     <col min="45" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1698,7 +1688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1798,7 +1788,7 @@
       <c r="AQ2" s="31"/>
       <c r="AR2" s="32"/>
     </row>
-    <row r="3" spans="1:44" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>40</v>
       </c>
@@ -1868,7 +1858,7 @@
       <c r="AQ3" s="44"/>
       <c r="AR3" s="45"/>
     </row>
-    <row r="4" spans="1:44" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="L4" s="16"/>
       <c r="M4" s="33"/>
       <c r="N4" s="35"/>
@@ -1901,7 +1891,7 @@
       <c r="AQ4" s="44"/>
       <c r="AR4" s="45"/>
     </row>
-    <row r="5" spans="1:44" ht="16.8" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" ht="16.8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="J5" s="51" t="s">
         <v>33</v>
       </c>
@@ -1939,7 +1929,7 @@
       <c r="AQ5" s="44"/>
       <c r="AR5" s="44"/>
     </row>
-    <row r="6" spans="1:44" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L6, A$3)</f>
         <v>#NAME?</v>
@@ -2099,7 +2089,7 @@
       </c>
       <c r="AR6" s="44"/>
     </row>
-    <row r="7" spans="1:44" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L7, A$3)</f>
         <v>#NAME?</v>
@@ -2259,7 +2249,7 @@
       </c>
       <c r="AR7" s="44"/>
     </row>
-    <row r="8" spans="1:44" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L8, A$3)</f>
         <v>#NAME?</v>
@@ -2419,7 +2409,7 @@
       </c>
       <c r="AR8" s="44"/>
     </row>
-    <row r="9" spans="1:44" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L9, A$3)</f>
         <v>#NAME?</v>
@@ -2579,7 +2569,7 @@
       </c>
       <c r="AR9" s="44"/>
     </row>
-    <row r="10" spans="1:44" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L10, A$3)</f>
         <v>#NAME?</v>
@@ -2739,7 +2729,7 @@
       </c>
       <c r="AR10" s="44"/>
     </row>
-    <row r="11" spans="1:44" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L11, A$3)</f>
         <v>#NAME?</v>
@@ -2899,7 +2889,7 @@
       </c>
       <c r="AR11" s="44"/>
     </row>
-    <row r="12" spans="1:44" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L12, A$3)</f>
         <v>#NAME?</v>
@@ -3603,7 +3593,7 @@
       <c r="F63" s="58"/>
       <c r="G63" s="58"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="97"/>
       <c r="B65" s="97"/>
       <c r="C65" s="97"/>
